--- a/GCAPM.TS/root.Data/Example_File_Diego.xlsx
+++ b/GCAPM.TS/root.Data/Example_File_Diego.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="3940" windowWidth="24880" windowHeight="14260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="18000" windowHeight="14880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2_1.csv" sheetId="1" r:id="rId1"/>
@@ -1438,10 +1438,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1077"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="860"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2060" topLeftCell="A290" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -61773,7 +61773,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="A2" sqref="A2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/GCAPM.TS/root.Data/Example_File_Diego.xlsx
+++ b/GCAPM.TS/root.Data/Example_File_Diego.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="18000" windowHeight="14880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7600" yWindow="0" windowWidth="18000" windowHeight="14880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2_1.csv" sheetId="1" r:id="rId1"/>
